--- a/natmiOut/OldD0/LR-pairs_lrc2p/Apoe-Lrp8.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Apoe-Lrp8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,57 +528,57 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>33.1445048146304</v>
+        <v>67.77251700000001</v>
       </c>
       <c r="H2">
-        <v>33.1445048146304</v>
+        <v>203.317551</v>
       </c>
       <c r="I2">
-        <v>0.254591253577211</v>
+        <v>0.4079637943863715</v>
       </c>
       <c r="J2">
-        <v>0.254591253577211</v>
+        <v>0.4079637943863715</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.85999828235258</v>
+        <v>3.211751333333333</v>
       </c>
       <c r="N2">
-        <v>1.85999828235258</v>
+        <v>9.635254</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.9274105493513785</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.9274105493513782</v>
       </c>
       <c r="Q2">
-        <v>61.64872202463937</v>
+        <v>217.668471838106</v>
       </c>
       <c r="R2">
-        <v>61.64872202463937</v>
+        <v>1959.016246542954</v>
       </c>
       <c r="S2">
-        <v>0.254591253577211</v>
+        <v>0.3783499266673376</v>
       </c>
       <c r="T2">
-        <v>0.254591253577211</v>
+        <v>0.3783499266673375</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>59.8357744425197</v>
+        <v>67.77251700000001</v>
       </c>
       <c r="H3">
-        <v>59.8357744425197</v>
+        <v>203.317551</v>
       </c>
       <c r="I3">
-        <v>0.4596135893199407</v>
+        <v>0.4079637943863715</v>
       </c>
       <c r="J3">
-        <v>0.4596135893199407</v>
+        <v>0.4079637943863715</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>1.85999828235258</v>
+        <v>0.2513873333333334</v>
       </c>
       <c r="N3">
-        <v>1.85999828235258</v>
+        <v>0.754162</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.07258945064862164</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.07258945064862163</v>
       </c>
       <c r="Q3">
-        <v>111.2944376863231</v>
+        <v>17.037152321918</v>
       </c>
       <c r="R3">
-        <v>111.2944376863231</v>
+        <v>153.334370897262</v>
       </c>
       <c r="S3">
-        <v>0.4596135893199407</v>
+        <v>0.02961386771903394</v>
       </c>
       <c r="T3">
-        <v>0.4596135893199407</v>
+        <v>0.02961386771903394</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -652,52 +652,238 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>37.2068514825103</v>
+        <v>60.97760633333333</v>
       </c>
       <c r="H4">
-        <v>37.2068514825103</v>
+        <v>182.932819</v>
       </c>
       <c r="I4">
-        <v>0.2857951571028484</v>
+        <v>0.3670611149405164</v>
       </c>
       <c r="J4">
-        <v>0.2857951571028484</v>
+        <v>0.3670611149405164</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.85999828235258</v>
+        <v>3.211751333333333</v>
       </c>
       <c r="N4">
-        <v>1.85999828235258</v>
+        <v>9.635254</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.9274105493513785</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.9274105493513782</v>
       </c>
       <c r="Q4">
-        <v>69.2046798492167</v>
+        <v>195.8449084445585</v>
       </c>
       <c r="R4">
-        <v>69.2046798492167</v>
+        <v>1762.604176001026</v>
       </c>
       <c r="S4">
-        <v>0.2857951571028484</v>
+        <v>0.3404163502525138</v>
       </c>
       <c r="T4">
-        <v>0.2857951571028484</v>
+        <v>0.3404163502525137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>60.97760633333333</v>
+      </c>
+      <c r="H5">
+        <v>182.932819</v>
+      </c>
+      <c r="I5">
+        <v>0.3670611149405164</v>
+      </c>
+      <c r="J5">
+        <v>0.3670611149405164</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>0.2513873333333334</v>
+      </c>
+      <c r="N5">
+        <v>0.754162</v>
+      </c>
+      <c r="O5">
+        <v>0.07258945064862164</v>
+      </c>
+      <c r="P5">
+        <v>0.07258945064862163</v>
+      </c>
+      <c r="Q5">
+        <v>15.32899784918644</v>
+      </c>
+      <c r="R5">
+        <v>137.960980642678</v>
+      </c>
+      <c r="S5">
+        <v>0.02664476468800265</v>
+      </c>
+      <c r="T5">
+        <v>0.02664476468800264</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>37.37372866666667</v>
+      </c>
+      <c r="H6">
+        <v>112.121186</v>
+      </c>
+      <c r="I6">
+        <v>0.2249750906731122</v>
+      </c>
+      <c r="J6">
+        <v>0.2249750906731122</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>3.211751333333333</v>
+      </c>
+      <c r="N6">
+        <v>9.635254</v>
+      </c>
+      <c r="O6">
+        <v>0.9274105493513785</v>
+      </c>
+      <c r="P6">
+        <v>0.9274105493513782</v>
+      </c>
+      <c r="Q6">
+        <v>120.0351228768049</v>
+      </c>
+      <c r="R6">
+        <v>1080.316105891244</v>
+      </c>
+      <c r="S6">
+        <v>0.2086442724315272</v>
+      </c>
+      <c r="T6">
+        <v>0.2086442724315271</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>37.37372866666667</v>
+      </c>
+      <c r="H7">
+        <v>112.121186</v>
+      </c>
+      <c r="I7">
+        <v>0.2249750906731122</v>
+      </c>
+      <c r="J7">
+        <v>0.2249750906731122</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.2513873333333334</v>
+      </c>
+      <c r="N7">
+        <v>0.754162</v>
+      </c>
+      <c r="O7">
+        <v>0.07258945064862164</v>
+      </c>
+      <c r="P7">
+        <v>0.07258945064862163</v>
+      </c>
+      <c r="Q7">
+        <v>9.39528198623689</v>
+      </c>
+      <c r="R7">
+        <v>84.557537876132</v>
+      </c>
+      <c r="S7">
+        <v>0.01633081824158506</v>
+      </c>
+      <c r="T7">
+        <v>0.01633081824158505</v>
       </c>
     </row>
   </sheetData>
